--- a/帐目.xlsx
+++ b/帐目.xlsx
@@ -14,9 +14,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>枣庄职业学院教务管理系统</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>双鑫轮胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张立智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英卓家教信息综合管理平台</t>
   </si>
 </sst>
 </file>
@@ -365,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -376,12 +416,92 @@
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>700</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>700</v>
+      </c>
+      <c r="E3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>700</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/帐目.xlsx
+++ b/帐目.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -52,11 +52,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘鑫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英卓家教信息综合管理平台</t>
+  </si>
+  <si>
+    <t>马良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -107,6 +107,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -119,14 +187,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -161,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,7 +264,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,7 +476,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -472,10 +540,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
       <c r="D4">
         <v>700</v>

--- a/帐目.xlsx
+++ b/帐目.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>双鑫轮胎</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,30 @@
   </si>
   <si>
     <t>马良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赚取700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌尖上的天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未到账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君利律师管理平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -484,7 +508,7 @@
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -500,8 +524,11 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -517,8 +544,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -535,7 +565,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -551,23 +581,56 @@
       <c r="E4">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>900</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>700</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
